--- a/xlsx/格鲁吉亚_intext.xlsx
+++ b/xlsx/格鲁吉亚_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1025">
   <si>
     <t>格鲁吉亚</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>佐治亞州</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_格鲁吉亚</t>
+    <t>佐治亚州</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_格鲁吉亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>喬治亞國旗</t>
+    <t>乔治亚国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>格魯吉亞國徽</t>
+    <t>格鲁吉亚国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1_(%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A%E5%9B%BD%E6%AD%8C)</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>喬治亞語</t>
+    <t>乔治亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>喬治亞文字</t>
+    <t>乔治亚文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
@@ -173,25 +173,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%A3%E6%95%99</t>
   </si>
   <si>
-    <t>東正教</t>
+    <t>东正教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%86%E6%B3%95</t>
   </si>
   <si>
-    <t>曆法</t>
+    <t>历法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9B%86</t>
   </si>
   <si>
-    <t>公曆</t>
+    <t>公历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
@@ -209,19 +209,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>國家憲法</t>
+    <t>国家宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
   </si>
   <si>
-    <t>單一制</t>
+    <t>单一制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>法律體系</t>
+    <t>法律体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%86%E6%B3%95%E7%B3%BB</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>喬治亞總統</t>
+    <t>乔治亚总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%A5%A5%E5%B0%94%E5%9F%BA%C2%B7%E9%A9%AC%E5%B0%94%E6%A0%BC%E9%9F%A6%E6%8B%89%E4%BB%80%E7%BB%B4%E5%88%A9</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>喬治亞總理</t>
+    <t>乔治亚总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E9%87%8C%C2%B7%E5%8A%A0%E9%87%8C%E5%B7%B4%E4%BB%80%E7%BB%B4%E5%88%A9</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>喬治亞國家銀行</t>
+    <t>乔治亚国家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%87%8C</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>格魯吉亞國旗</t>
+    <t>格鲁吉亚国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.ge</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_9984</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A7%E5%A1%9E%E6%A2%AF</t>
   </si>
   <si>
-    <t>南奧塞梯</t>
+    <t>南奥塞梯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A%E6%97%8F</t>
@@ -443,9 +443,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AD%A3%E6%95%99</t>
   </si>
   <si>
-    <t>东正教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
   </si>
   <si>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E9%A0%98%E5%B0%8E%E4%BA%BA%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>蘇聯領導人列表</t>
+    <t>苏联领导人列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E6%96%AF%E5%A4%A7%E6%9E%97</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E5%9B%BD%E5%AE%B6</t>
@@ -515,25 +512,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>喬治亞人</t>
+    <t>乔治亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E8%A9%B1</t>
   </si>
   <si>
-    <t>普通話</t>
+    <t>普通话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>格魯吉亞語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%BC%97</t>
@@ -551,19 +545,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>高加索伊比利亞王國</t>
+    <t>高加索伊比利亚王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>東羅馬帝國</t>
+    <t>东罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>波斯語</t>
+    <t>波斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/-%E6%96%AF%E5%9D%A6</t>
@@ -575,19 +569,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90</t>
   </si>
   <si>
-    <t>西歐</t>
+    <t>西欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E</t>
   </si>
   <si>
-    <t>俄語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
   </si>
   <si>
-    <t>北歐</t>
+    <t>北欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
@@ -611,43 +602,40 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>希臘語</t>
+    <t>希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉丁語</t>
+    <t>拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
+    <t>罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%96%AC%E6%B2%BB</t>
   </si>
   <si>
-    <t>聖喬治</t>
+    <t>圣乔治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>波斯帝國</t>
+    <t>波斯帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>蘇聯加盟共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E8%AA%9E</t>
   </si>
   <si>
-    <t>母語</t>
+    <t>母语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -671,19 +659,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>格魯吉亞歷史</t>
+    <t>格鲁吉亚历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E9%93%9C%E5%99%A8%E6%97%B6%E4%BB%A3</t>
@@ -725,15 +713,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>东罗马帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>波斯帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
@@ -743,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>蒙古帝國</t>
+    <t>蒙古帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%96%E6%9C%A8%E5%84%BF</t>
@@ -767,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>伊拉克戰爭</t>
+    <t>伊拉克战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E4%BF%84</t>
@@ -779,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E%E8%98%87%E7%B6%AD%E5%9F%83%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>格魯吉亞蘇維埃社會主義共和國</t>
+    <t>格鲁吉亚苏维埃社会主义共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%B0%94%E5%B7%B4%E4%B9%94%E5%A4%AB</t>
@@ -797,13 +779,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E6%9C%80%E9%AB%98%E9%A0%98%E5%B0%8E%E4%BA%BA%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>蘇聯最高領導人列表</t>
+    <t>苏联最高领导人列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>開放政策</t>
+    <t>开放政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%94%B9%E9%9D%A9</t>
@@ -833,67 +815,61 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E7%93%A6%E7%B4%8D%E8%8C%B2</t>
   </si>
   <si>
-    <t>謝瓦納茲</t>
+    <t>谢瓦纳兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%C2%B7%E8%96%A9%E5%8D%A1%E5%B8%8C%E7%B6%AD%E5%88%A9</t>
   </si>
   <si>
-    <t>米哈伊·薩卡希維利</t>
+    <t>米哈伊·萨卡希维利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A7%E5%A1%9E%E6%A2%AF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南奧塞梯戰爭</t>
+    <t>南奥塞梯战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>俄羅斯軍隊</t>
+    <t>俄罗斯军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%8D%A1%E4%BB%80%E7%B6%AD%E5%88%A9</t>
   </si>
   <si>
-    <t>薩卡什維利</t>
+    <t>萨卡什维利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲聯盟</t>
+    <t>欧洲联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A7%E5%A1%9E%E6%8F%90%E4%BA%9E</t>
   </si>
   <si>
-    <t>南奧塞提亞</t>
+    <t>南奥塞提亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E8%8C%B2</t>
   </si>
   <si>
-    <t>阿布哈茲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>半總統制</t>
+    <t>半总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
+    <t>议会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A%E5%9C%B0%E7%90%86</t>
@@ -983,19 +959,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>喬治亞政治</t>
+    <t>乔治亚政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%BB%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>多黨制</t>
+    <t>多党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3%E5%88%B6</t>
   </si>
   <si>
-    <t>內閣制</t>
+    <t>内阁制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E4%BC%9A%E8%AE%AE%E5%91%98</t>
@@ -1007,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84</t>
   </si>
   <si>
-    <t>北約</t>
+    <t>北约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E4%B8%80%E6%B0%91%E6%97%8F%E8%BF%90%E5%8A%A8%E5%85%9A</t>
@@ -1019,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E5%B7%B4%E5%8D%A1%E6%8B%89%E6%BE%A4</t>
   </si>
   <si>
-    <t>大衛·巴卡拉澤</t>
+    <t>大卫·巴卡拉泽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A%E6%A2%A6%E6%83%B3</t>
@@ -1031,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>喬治亞行政區劃</t>
+    <t>乔治亚行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E5%85%B9%E8%87%AA%E6%B2%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1073,25 +1049,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%88%A9%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>古利亞州</t>
+    <t>古利亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%A5%96%E7%88%BE%E8%93%8B%E8%92%82</t>
   </si>
   <si>
-    <t>奧祖爾蓋蒂</t>
+    <t>奥祖尔盖蒂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%81%B0-%E5%88%97%E5%85%B6%E5%91%BC%E7%B1%B3-%E4%B8%8B%E6%96%AF%E7%93%A6%E6%B6%85%E5%AD%A3%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>拉恰-列其呼米-下斯瓦涅季亞州</t>
+    <t>拉恰-列其呼米-下斯瓦涅季亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%B8%83%E7%BE%85%E5%8B%9E%E9%87%8C</t>
   </si>
   <si>
-    <t>安布羅勞里</t>
+    <t>安布罗劳里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%A2%85%E5%88%97%E5%AD%A3%E5%B7%9E</t>
@@ -1115,13 +1091,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%93%88%E7%88%BE%E9%BD%8A%E8%B5%AB</t>
   </si>
   <si>
-    <t>阿哈爾齊赫</t>
+    <t>阿哈尔齐赫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%80%E9%81%94-%E5%8D%A1%E7%89%B9%E5%88%A9%E5%B7%9E</t>
   </si>
   <si>
-    <t>什達-卡特利州</t>
+    <t>什达-卡特利州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E9%87%8C</t>
@@ -1145,13 +1121,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%B6%AD%E8%8E%AB-%E5%8D%A1%E7%89%B9%E5%88%A9%E5%B7%9E</t>
   </si>
   <si>
-    <t>克維莫-卡特利州</t>
+    <t>克维莫-卡特利州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E6%96%AF%E5%A1%94%E7%B6%AD</t>
   </si>
   <si>
-    <t>魯斯塔維</t>
+    <t>鲁斯塔维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%B5%AB%E5%AD%A3%E5%B7%9E</t>
@@ -1163,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%8B%89%E7%B6%AD</t>
   </si>
   <si>
-    <t>泰拉維</t>
+    <t>泰拉维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF%E8%87%AA%E6%B2%BB%E5%B7%9E</t>
@@ -1187,55 +1163,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E8%91%89</t>
   </si>
   <si>
-    <t>茶葉</t>
+    <t>茶叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E8%91%A1%E8%90%84%E9%85%92</t>
   </si>
   <si>
-    <t>喬治亞葡萄酒</t>
+    <t>乔治亚葡萄酒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%B3</t>
   </si>
   <si>
-    <t>錳</t>
+    <t>锰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%85</t>
   </si>
   <si>
-    <t>銅</t>
+    <t>铜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>計劃經濟</t>
+    <t>计划经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E6%AD%A3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>喬治亞正教會</t>
+    <t>乔治亚正教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E4%BD%BF%E5%BE%92%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>亞美尼亞使徒教會</t>
+    <t>亚美尼亚使徒教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -1247,9 +1217,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF</t>
   </si>
   <si>
-    <t>南奥塞梯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Mingrelians</t>
   </si>
   <si>
@@ -1259,13 +1226,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>敘利亞人</t>
+    <t>叙利亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E4%BA%BA</t>
   </si>
   <si>
-    <t>希臘人</t>
+    <t>希腊人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%B0%94%E5%BE%B7%E4%BA%BA</t>
@@ -1289,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E6%96%AF%E8%B5%AB%E7%89%B9%E5%9C%9F%E8%80%B3%E5%85%B6%E4%BA%BA</t>
   </si>
   <si>
-    <t>麥斯赫特土耳其人</t>
+    <t>麦斯赫特土耳其人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%89%8E%E5%B0%94</t>
@@ -1319,9 +1286,6 @@
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E5%8D%97%E5%A5%A7%E5%A1%9E%E6%A2%AF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>2008年南奧塞梯戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A%E5%BB%BA%E4%BA%A4%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -1337,13 +1301,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際貨幣基金組織</t>
+    <t>国际货币基金组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E6%99%AE%E6%9E%97%E6%A0%BC%E7%A7%91%E5%AD%A6%2B%E5%95%86%E4%B8%9A%E5%AA%92%E4%BD%93</t>
@@ -1367,9 +1331,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Europe</t>
   </si>
   <si>
@@ -1385,9 +1346,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
   </si>
   <si>
-    <t>西欧</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
@@ -1433,9 +1391,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
   </si>
   <si>
-    <t>北欧</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
   </si>
   <si>
@@ -1523,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -1541,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -1571,19 +1526,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞</t>
+    <t>克罗埃西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -1595,13 +1550,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
@@ -1619,13 +1574,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
@@ -1643,25 +1598,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
-    <t>聖座</t>
+    <t>圣座</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
   </si>
   <si>
-    <t>梵蒂岡</t>
+    <t>梵蒂冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
@@ -1691,7 +1646,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1709,19 +1664,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
   </si>
   <si>
-    <t>揚馬延島</t>
+    <t>扬马延岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
@@ -1739,7 +1694,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>馬爾他騎士團</t>
+    <t>马尔他骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
@@ -1787,7 +1742,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
@@ -1799,27 +1754,21 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾巴尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
   </si>
   <si>
@@ -1841,9 +1790,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%B1%E7%BB%B4%E4%BA%9A</t>
   </si>
   <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E5%A3%AB%E7%99%BB</t>
   </si>
   <si>
@@ -1865,9 +1811,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
@@ -1913,13 +1856,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
   </si>
   <si>
-    <t>属地</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%B0</t>
@@ -1955,27 +1895,18 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
   </si>
   <si>
-    <t>欧盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
   </si>
   <si>
-    <t>梵蒂冈</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BA%A7</t>
   </si>
   <si>
-    <t>圣座</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96%E9%AA%91%E5%A3%AB%E5%9B%A2</t>
   </si>
   <si>
@@ -1985,7 +1916,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%8F%E6%B5%B7</t>
   </si>
   <si>
-    <t>裏海</t>
+    <t>里海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
@@ -2003,31 +1934,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B7%B4%E7%88%BE%E9%81%94-%E5%B7%B4%E7%88%BE%E5%8D%A1%E7%88%BE%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>卡巴爾達-巴爾卡爾共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E6%81%B0%E4%BC%8A-%E5%88%87%E7%88%BE%E5%85%8B%E6%96%AF%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>卡拉恰伊-切爾克斯共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%BF%AA%E6%A0%BC%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿迪格共和國</t>
+    <t>阿迪格共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%8F%A4%E4%BB%80%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>印古什共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A5%A7%E5%A1%9E%E6%8F%90%E4%BA%9E-%E9%98%BF%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>北奧塞提亞-阿蘭共和國</t>
+    <t>北奥塞提亚-阿兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%89%8E%E8%B5%AB</t>
@@ -2075,7 +1997,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%81%AF%E9%AB%94%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>獨聯體國家足球隊</t>
+    <t>独联体国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%81%94%E4%BD%93%E6%9D%AF</t>
@@ -2099,13 +2021,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E7%B6%93%E6%BF%9F%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>歐亞經濟共同體</t>
+    <t>欧亚经济共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E8%88%AA%E7%A9%BA%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>州際航空委員會</t>
+    <t>州际航空委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E7%BB%84%E7%BB%87</t>
@@ -2135,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
@@ -2153,25 +2075,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%B2%9D%E5%A4%9A</t>
   </si>
   <si>
-    <t>巴貝多</t>
+    <t>巴贝多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%87%8C%E6%96%AF</t>
   </si>
   <si>
-    <t>貝里斯</t>
+    <t>贝里斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8D%97</t>
   </si>
   <si>
-    <t>貝南</t>
+    <t>贝南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%9C%AD%E9%82%A3</t>
@@ -2189,13 +2111,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -2213,7 +2135,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A5%E9%9A%86</t>
   </si>
   <si>
-    <t>喀麥隆</t>
+    <t>喀麦隆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -2225,7 +2147,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -2249,13 +2171,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果共和國</t>
+    <t>刚果共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E5%A4%A7%E9%BB%8E%E5%8A%A0</t>
@@ -2279,7 +2201,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0</t>
@@ -2297,7 +2219,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A</t>
@@ -2315,13 +2237,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
   </si>
   <si>
-    <t>斐濟</t>
+    <t>斐济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BD%AD</t>
@@ -2333,43 +2255,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>甘比亞</t>
+    <t>甘比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E7%B4%8D</t>
   </si>
   <si>
-    <t>迦納</t>
+    <t>迦纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89</t>
   </si>
   <si>
-    <t>瓜地馬拉</t>
+    <t>瓜地马拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>幾內亞</t>
+    <t>几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>蓋亞那</t>
+    <t>盖亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
@@ -2393,9 +2315,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
@@ -2405,7 +2324,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>印度尼西亞</t>
+    <t>印度尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -2417,19 +2336,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙買加</t>
+    <t>牙买加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
+    <t>约旦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E4%BA%9E</t>
   </si>
   <si>
-    <t>肯亞</t>
+    <t>肯亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -2447,55 +2366,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
   </si>
   <si>
-    <t>吉爾吉斯</t>
+    <t>吉尔吉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%81%94%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>馬達加斯加</t>
+    <t>马达加斯加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E7%B6%AD</t>
   </si>
   <si>
-    <t>馬拉維</t>
+    <t>马拉维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
   </si>
   <si>
-    <t>馬爾地夫</t>
+    <t>马尔地夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>茅利塔尼亞</t>
+    <t>茅利塔尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E9%87%8C%E8%A5%BF%E6%96%AF</t>
@@ -2513,7 +2432,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9C%8B</t>
   </si>
   <si>
-    <t>蒙古國</t>
+    <t>蒙古国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
@@ -2531,25 +2450,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B1%B3%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>納米比亞</t>
+    <t>纳米比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>尼泊爾</t>
+    <t>尼泊尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
@@ -2567,7 +2486,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
@@ -2585,13 +2504,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拿馬</t>
+    <t>巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9E%E7%B4%90%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>巴布亞紐幾內亞</t>
+    <t>巴布亚纽几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -2609,49 +2528,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%AE%89%E9%81%94</t>
   </si>
   <si>
-    <t>盧安達</t>
+    <t>卢安达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E5%8F%8A%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福及尼維斯</t>
+    <t>圣克里斯多福及尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9C%B2%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>聖露西亞</t>
+    <t>圣露西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE</t>
   </si>
   <si>
-    <t>聖文森</t>
+    <t>圣文森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE</t>
   </si>
   <si>
-    <t>塞內加爾</t>
+    <t>塞内加尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
@@ -2669,7 +2588,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%BE%85%E9%96%80%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>索羅門群島</t>
+    <t>索罗门群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -2681,31 +2600,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E6%BE%8E%E9%87%91%E9%A6%AC%E5%80%8B%E5%88%A5%E9%97%9C%E7%A8%85%E9%A0%98%E5%9F%9F</t>
   </si>
   <si>
-    <t>臺澎金馬個別關稅領域</t>
+    <t>台澎金马个别关税领域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B0%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>坦尚尼亞</t>
+    <t>坦尚尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
@@ -2717,37 +2636,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94</t>
   </si>
   <si>
-    <t>烏干達</t>
+    <t>乌干达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
   </si>
   <si>
-    <t>烏拉圭</t>
+    <t>乌拉圭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89</t>
@@ -2765,7 +2684,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
@@ -2777,121 +2696,88 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%BE%B7%E8%A7%92</t>
   </si>
   <si>
-    <t>維德角</t>
+    <t>维德角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛沙尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
   </si>
   <si>
-    <t>荷兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>中華臺北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
@@ -2903,9 +2789,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
   </si>
   <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
   </si>
   <si>
@@ -2921,15 +2804,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>刚果民主共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>刚果共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
   </si>
   <si>
@@ -2957,9 +2834,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
   </si>
   <si>
-    <t>几内亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
   </si>
   <si>
@@ -2981,9 +2855,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C</t>
   </si>
   <si>
@@ -3005,7 +2876,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>新不倫瑞克</t>
+    <t>新不伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -3041,9 +2912,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
   </si>
   <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
   </si>
   <si>
@@ -3071,7 +2939,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
@@ -3113,19 +2981,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
   </si>
   <si>
-    <t>泰国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
   </si>
   <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
   </si>
   <si>
-    <t>布特羅斯·布特羅斯-加利</t>
+    <t>布特罗斯·布特罗斯-加利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
@@ -3143,13 +3005,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>法語系運動會</t>
+    <t>法语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
   </si>
   <si>
-    <t>法國電視國際五台</t>
+    <t>法国电视国际五台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%85%B1%E5%90%8C%E4%BD%93</t>
@@ -3173,25 +3035,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>聖多美和普林西比</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E6%AF%94%E4%BA%9A</t>
   </si>
   <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%AA%9E%E7%B3%BB%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%A7%94%E5%93%A1%E6%9C%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>葡語系奧林匹克委員會總會</t>
+    <t>葡语系奥林匹克委员会总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>葡語系運動會</t>
+    <t>葡语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
@@ -3203,7 +3059,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3227,13 +3083,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3955,7 +3811,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -5721,7 +5577,7 @@
         <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -5747,10 +5603,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5776,10 +5632,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>6</v>
@@ -5805,10 +5661,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>14</v>
@@ -5834,10 +5690,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>9</v>
@@ -5863,10 +5719,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>6</v>
@@ -5892,10 +5748,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>7</v>
@@ -5921,10 +5777,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5950,10 +5806,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5979,10 +5835,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>7</v>
@@ -6008,10 +5864,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -6037,10 +5893,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -6066,10 +5922,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -6095,10 +5951,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -6124,10 +5980,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="G88" t="n">
         <v>6</v>
@@ -6153,10 +6009,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -6182,10 +6038,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -6211,10 +6067,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>5</v>
@@ -6240,10 +6096,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>4</v>
@@ -6269,10 +6125,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -6298,10 +6154,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6327,10 +6183,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6356,10 +6212,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -6385,10 +6241,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="G97" t="n">
         <v>6</v>
@@ -6414,10 +6270,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6443,10 +6299,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6472,10 +6328,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6501,10 +6357,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -6530,10 +6386,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -6559,10 +6415,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6588,10 +6444,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -6617,10 +6473,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6646,10 +6502,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6675,10 +6531,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6704,10 +6560,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6733,10 +6589,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>4</v>
@@ -6762,10 +6618,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6791,10 +6647,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>4</v>
@@ -6820,10 +6676,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6849,10 +6705,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6878,10 +6734,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6907,10 +6763,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6936,10 +6792,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -6965,10 +6821,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6994,10 +6850,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -7023,10 +6879,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7052,10 +6908,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7081,10 +6937,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -7110,10 +6966,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7139,10 +6995,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>5</v>
@@ -7168,10 +7024,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7197,10 +7053,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7226,10 +7082,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7255,10 +7111,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7284,10 +7140,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7313,10 +7169,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7342,10 +7198,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7371,10 +7227,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7400,10 +7256,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7429,10 +7285,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7458,10 +7314,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7487,10 +7343,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7516,10 +7372,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7545,10 +7401,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7574,10 +7430,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7603,10 +7459,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7632,10 +7488,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7661,10 +7517,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>147</v>
       </c>
       <c r="G141" t="n">
         <v>10</v>
@@ -7690,10 +7546,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -7719,10 +7575,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7748,10 +7604,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7777,10 +7633,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7806,10 +7662,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -7835,10 +7691,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>130</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7864,10 +7720,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7893,10 +7749,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7922,10 +7778,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7951,10 +7807,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7980,10 +7836,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>4</v>
@@ -8009,10 +7865,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8038,10 +7894,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -8067,10 +7923,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8096,10 +7952,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8125,10 +7981,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8154,10 +8010,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8183,10 +8039,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -8212,10 +8068,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -8241,10 +8097,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>9</v>
@@ -8270,10 +8126,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8299,10 +8155,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8328,10 +8184,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8357,10 +8213,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8386,10 +8242,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8415,10 +8271,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8444,10 +8300,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8473,10 +8329,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8502,10 +8358,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8531,10 +8387,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8560,10 +8416,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8589,10 +8445,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8618,10 +8474,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8647,10 +8503,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8676,10 +8532,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8705,10 +8561,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8734,10 +8590,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8763,10 +8619,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8792,10 +8648,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8821,10 +8677,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8850,10 +8706,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8879,10 +8735,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8908,10 +8764,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8937,10 +8793,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8966,10 +8822,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8995,10 +8851,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9024,10 +8880,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9053,10 +8909,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9082,10 +8938,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -9111,10 +8967,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9140,10 +8996,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9169,10 +9025,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9198,10 +9054,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9227,10 +9083,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9256,10 +9112,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9285,10 +9141,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9314,10 +9170,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9343,10 +9199,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -9372,10 +9228,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9401,10 +9257,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -9430,10 +9286,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>60</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -9459,10 +9315,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9488,10 +9344,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9517,10 +9373,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>143</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9546,10 +9402,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F206" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9575,10 +9431,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9633,10 +9489,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>132</v>
       </c>
       <c r="G209" t="n">
         <v>9</v>
@@ -9662,10 +9518,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9691,10 +9547,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9720,10 +9576,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9749,10 +9605,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9778,10 +9634,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9807,10 +9663,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9836,10 +9692,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9865,10 +9721,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -9894,10 +9750,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9923,10 +9779,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F219" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9952,10 +9808,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9981,10 +9837,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -10010,10 +9866,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>128</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10039,10 +9895,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10068,10 +9924,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10097,10 +9953,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10126,10 +9982,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10155,10 +10011,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10184,10 +10040,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10213,10 +10069,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10242,10 +10098,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="G230" t="n">
         <v>6</v>
@@ -10271,10 +10127,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="G231" t="n">
         <v>9</v>
@@ -10300,10 +10156,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G232" t="n">
         <v>6</v>
@@ -10329,10 +10185,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>184</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -10358,10 +10214,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="G234" t="n">
         <v>3</v>
@@ -10387,10 +10243,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="G235" t="n">
         <v>3</v>
@@ -10416,10 +10272,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -10445,10 +10301,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -10474,10 +10330,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -10503,10 +10359,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="G239" t="n">
         <v>4</v>
@@ -10532,10 +10388,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="G240" t="n">
         <v>3</v>
@@ -10561,10 +10417,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>187</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10590,10 +10446,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -10619,10 +10475,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -10648,10 +10504,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="G244" t="n">
         <v>5</v>
@@ -10677,10 +10533,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="G245" t="n">
         <v>3</v>
@@ -10706,10 +10562,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -10735,10 +10591,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10764,10 +10620,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -10793,10 +10649,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="G249" t="n">
         <v>3</v>
@@ -10822,10 +10678,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="G250" t="n">
         <v>4</v>
@@ -10851,10 +10707,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="G251" t="n">
         <v>4</v>
@@ -10880,10 +10736,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="G252" t="n">
         <v>4</v>
@@ -10909,10 +10765,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G253" t="n">
         <v>4</v>
@@ -10938,10 +10794,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="G254" t="n">
         <v>4</v>
@@ -10967,10 +10823,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10996,10 +10852,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11025,10 +10881,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -11054,10 +10910,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="G258" t="n">
         <v>3</v>
@@ -11083,10 +10939,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="G259" t="n">
         <v>3</v>
@@ -11112,10 +10968,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="G260" t="n">
         <v>4</v>
@@ -11141,10 +10997,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="G261" t="n">
         <v>5</v>
@@ -11170,10 +11026,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="G262" t="n">
         <v>5</v>
@@ -11199,10 +11055,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11228,10 +11084,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -11257,10 +11113,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -11286,10 +11142,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -11315,10 +11171,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11344,10 +11200,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="G268" t="n">
         <v>3</v>
@@ -11373,10 +11229,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -11402,10 +11258,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="G270" t="n">
         <v>3</v>
@@ -11431,10 +11287,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="G271" t="n">
         <v>3</v>
@@ -11460,10 +11316,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="G272" t="n">
         <v>3</v>
@@ -11489,10 +11345,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="G273" t="n">
         <v>3</v>
@@ -11518,10 +11374,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11547,10 +11403,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="G275" t="n">
         <v>5</v>
@@ -11576,10 +11432,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -11605,10 +11461,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -11634,10 +11490,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11663,10 +11519,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11692,10 +11548,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -11721,10 +11577,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="G281" t="n">
         <v>8</v>
@@ -11750,10 +11606,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="F282" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -11779,10 +11635,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="F283" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="G283" t="n">
         <v>3</v>
@@ -11808,10 +11664,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="F284" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11837,10 +11693,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="F285" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11866,10 +11722,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="F286" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11895,10 +11751,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="F287" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11924,10 +11780,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="F288" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11953,10 +11809,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="F289" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11982,10 +11838,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="F290" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12011,10 +11867,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="F291" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -12040,10 +11896,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="F292" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12069,10 +11925,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="F293" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12098,10 +11954,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="F294" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="G294" t="n">
         <v>3</v>
@@ -12127,10 +11983,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="F295" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12156,10 +12012,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="F296" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12185,10 +12041,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="F297" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12214,10 +12070,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="F298" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12243,10 +12099,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="F299" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12272,10 +12128,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="F300" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12301,10 +12157,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="F301" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12330,10 +12186,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="F302" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12359,10 +12215,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="F303" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12388,10 +12244,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="F304" t="s">
-        <v>598</v>
+        <v>509</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -12417,10 +12273,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="F305" t="s">
-        <v>600</v>
+        <v>513</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -12446,10 +12302,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="F306" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="G306" t="n">
         <v>3</v>
@@ -12475,10 +12331,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="F307" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="G307" t="n">
         <v>3</v>
@@ -12504,10 +12360,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="F308" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12533,10 +12389,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="F309" t="s">
-        <v>608</v>
+        <v>493</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12562,10 +12418,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="F310" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12591,10 +12447,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="F311" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12620,10 +12476,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="F312" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -12649,10 +12505,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="F313" t="s">
-        <v>616</v>
+        <v>511</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12678,10 +12534,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="F314" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -12707,10 +12563,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="F315" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12736,10 +12592,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="F316" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12765,10 +12621,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="F317" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12794,10 +12650,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="F318" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12823,10 +12679,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="F319" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12852,10 +12708,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="F320" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12881,10 +12737,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="F321" t="s">
-        <v>632</v>
+        <v>543</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12910,10 +12766,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="F322" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12939,10 +12795,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="F323" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12968,10 +12824,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="F324" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12997,10 +12853,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="F325" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13026,10 +12882,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="F326" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -13055,10 +12911,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="F327" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13084,10 +12940,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="F328" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -13113,10 +12969,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="F329" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13142,10 +12998,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="F330" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13171,10 +13027,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="F331" t="s">
-        <v>648</v>
+        <v>159</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13200,10 +13056,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="F332" t="s">
-        <v>650</v>
+        <v>533</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13229,10 +13085,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="F333" t="s">
-        <v>652</v>
+        <v>531</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13258,10 +13114,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="F334" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13287,10 +13143,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="F335" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13316,10 +13172,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="F336" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13345,10 +13201,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="F337" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13374,10 +13230,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="F338" t="s">
-        <v>662</v>
+        <v>298</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13403,10 +13259,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="F339" t="s">
-        <v>664</v>
+        <v>296</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13432,10 +13288,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="F340" t="s">
-        <v>666</v>
+        <v>641</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13461,10 +13317,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="F341" t="s">
-        <v>668</v>
+        <v>302</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13490,10 +13346,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>669</v>
+        <v>643</v>
       </c>
       <c r="F342" t="s">
-        <v>670</v>
+        <v>644</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13519,10 +13375,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="F343" t="s">
-        <v>672</v>
+        <v>646</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13548,10 +13404,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
       <c r="F344" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13577,10 +13433,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="F345" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13606,10 +13462,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="F346" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13635,10 +13491,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
       <c r="F347" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13664,10 +13520,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="F348" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13693,10 +13549,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="F349" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13722,10 +13578,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="F350" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13751,10 +13607,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
       <c r="F351" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13780,10 +13636,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="F352" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13809,10 +13665,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="F353" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13838,10 +13694,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="F354" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13867,10 +13723,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>693</v>
+        <v>667</v>
       </c>
       <c r="F355" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13896,10 +13752,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="F356" t="s">
-        <v>696</v>
+        <v>670</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13925,10 +13781,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>697</v>
+        <v>671</v>
       </c>
       <c r="F357" t="s">
-        <v>698</v>
+        <v>672</v>
       </c>
       <c r="G357" t="n">
         <v>3</v>
@@ -13954,10 +13810,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="F358" t="s">
-        <v>598</v>
+        <v>509</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13983,10 +13839,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="F359" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -14012,10 +13868,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
       <c r="F360" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14041,10 +13897,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="F361" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="G361" t="n">
         <v>2</v>
@@ -14070,10 +13926,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>705</v>
+        <v>679</v>
       </c>
       <c r="F362" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14099,10 +13955,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
       <c r="F363" t="s">
-        <v>708</v>
+        <v>682</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14128,10 +13984,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
       <c r="F364" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14157,10 +14013,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="F365" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14186,10 +14042,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
       <c r="F366" t="s">
-        <v>714</v>
+        <v>688</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14215,10 +14071,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
       <c r="F367" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14244,10 +14100,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>717</v>
+        <v>691</v>
       </c>
       <c r="F368" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14273,10 +14129,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
       <c r="F369" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14302,10 +14158,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
       <c r="F370" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -14331,10 +14187,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="F371" t="s">
-        <v>724</v>
+        <v>698</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14360,10 +14216,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
       <c r="F372" t="s">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -14389,10 +14245,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>727</v>
+        <v>701</v>
       </c>
       <c r="F373" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -14418,10 +14274,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>729</v>
+        <v>703</v>
       </c>
       <c r="F374" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -14447,10 +14303,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
       <c r="F375" t="s">
-        <v>732</v>
+        <v>706</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14476,10 +14332,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="F376" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -14505,10 +14361,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="F377" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -14534,10 +14390,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>737</v>
+        <v>711</v>
       </c>
       <c r="F378" t="s">
-        <v>738</v>
+        <v>712</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -14563,10 +14419,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="F379" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14592,10 +14448,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>741</v>
+        <v>715</v>
       </c>
       <c r="F380" t="s">
-        <v>742</v>
+        <v>716</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -14621,10 +14477,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>743</v>
+        <v>717</v>
       </c>
       <c r="F381" t="s">
-        <v>744</v>
+        <v>718</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14650,10 +14506,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="F382" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14679,10 +14535,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="F383" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14708,10 +14564,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>749</v>
+        <v>723</v>
       </c>
       <c r="F384" t="s">
-        <v>750</v>
+        <v>724</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14737,10 +14593,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>751</v>
+        <v>725</v>
       </c>
       <c r="F385" t="s">
-        <v>752</v>
+        <v>726</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14766,10 +14622,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>753</v>
+        <v>727</v>
       </c>
       <c r="F386" t="s">
-        <v>754</v>
+        <v>728</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14795,10 +14651,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
       <c r="F387" t="s">
-        <v>756</v>
+        <v>730</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14824,10 +14680,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>757</v>
+        <v>731</v>
       </c>
       <c r="F388" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14853,10 +14709,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="F389" t="s">
-        <v>760</v>
+        <v>734</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14882,10 +14738,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>761</v>
+        <v>735</v>
       </c>
       <c r="F390" t="s">
-        <v>762</v>
+        <v>736</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14911,10 +14767,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>763</v>
+        <v>737</v>
       </c>
       <c r="F391" t="s">
-        <v>764</v>
+        <v>738</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
@@ -14940,10 +14796,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
       <c r="F392" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14969,10 +14825,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>767</v>
+        <v>741</v>
       </c>
       <c r="F393" t="s">
-        <v>768</v>
+        <v>742</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14998,10 +14854,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="F394" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15027,10 +14883,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>769</v>
+        <v>743</v>
       </c>
       <c r="F395" t="s">
-        <v>770</v>
+        <v>744</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15056,10 +14912,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>771</v>
+        <v>745</v>
       </c>
       <c r="F396" t="s">
-        <v>772</v>
+        <v>746</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15085,10 +14941,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="F397" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15114,10 +14970,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="F398" t="s">
-        <v>776</v>
+        <v>750</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15143,10 +14999,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="F399" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15172,10 +15028,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="F400" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="G400" t="n">
         <v>4</v>
@@ -15201,10 +15057,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="F401" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="G401" t="n">
         <v>2</v>
@@ -15230,10 +15086,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>783</v>
+        <v>757</v>
       </c>
       <c r="F402" t="s">
-        <v>784</v>
+        <v>758</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15259,10 +15115,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>785</v>
+        <v>759</v>
       </c>
       <c r="F403" t="s">
-        <v>786</v>
+        <v>760</v>
       </c>
       <c r="G403" t="n">
         <v>2</v>
@@ -15288,10 +15144,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>787</v>
+        <v>761</v>
       </c>
       <c r="F404" t="s">
-        <v>788</v>
+        <v>762</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15317,10 +15173,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>789</v>
+        <v>763</v>
       </c>
       <c r="F405" t="s">
-        <v>790</v>
+        <v>764</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15346,10 +15202,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="F406" t="s">
-        <v>792</v>
+        <v>467</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15375,10 +15231,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>793</v>
+        <v>766</v>
       </c>
       <c r="F407" t="s">
-        <v>794</v>
+        <v>767</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -15404,10 +15260,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>795</v>
+        <v>768</v>
       </c>
       <c r="F408" t="s">
-        <v>796</v>
+        <v>769</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15433,10 +15289,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>797</v>
+        <v>770</v>
       </c>
       <c r="F409" t="s">
-        <v>798</v>
+        <v>771</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15462,10 +15318,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>799</v>
+        <v>772</v>
       </c>
       <c r="F410" t="s">
-        <v>800</v>
+        <v>773</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15491,10 +15347,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>801</v>
+        <v>774</v>
       </c>
       <c r="F411" t="s">
-        <v>802</v>
+        <v>775</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15520,10 +15376,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
       <c r="F412" t="s">
-        <v>804</v>
+        <v>777</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15549,10 +15405,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
       <c r="F413" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15578,10 +15434,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
       <c r="F414" t="s">
-        <v>808</v>
+        <v>781</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15607,10 +15463,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>809</v>
+        <v>782</v>
       </c>
       <c r="F415" t="s">
-        <v>810</v>
+        <v>783</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15636,10 +15492,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>811</v>
+        <v>784</v>
       </c>
       <c r="F416" t="s">
-        <v>812</v>
+        <v>785</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15665,10 +15521,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>813</v>
+        <v>786</v>
       </c>
       <c r="F417" t="s">
-        <v>814</v>
+        <v>787</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15694,10 +15550,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>815</v>
+        <v>788</v>
       </c>
       <c r="F418" t="s">
-        <v>816</v>
+        <v>789</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15723,10 +15579,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>817</v>
+        <v>790</v>
       </c>
       <c r="F419" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15752,10 +15608,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="F420" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15781,10 +15637,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>821</v>
+        <v>794</v>
       </c>
       <c r="F421" t="s">
-        <v>822</v>
+        <v>795</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15810,10 +15666,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>823</v>
+        <v>796</v>
       </c>
       <c r="F422" t="s">
-        <v>824</v>
+        <v>797</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15839,10 +15695,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>825</v>
+        <v>798</v>
       </c>
       <c r="F423" t="s">
-        <v>826</v>
+        <v>799</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15868,10 +15724,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>827</v>
+        <v>800</v>
       </c>
       <c r="F424" t="s">
-        <v>828</v>
+        <v>801</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15897,10 +15753,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>829</v>
+        <v>802</v>
       </c>
       <c r="F425" t="s">
-        <v>830</v>
+        <v>803</v>
       </c>
       <c r="G425" t="n">
         <v>2</v>
@@ -15926,10 +15782,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>831</v>
+        <v>804</v>
       </c>
       <c r="F426" t="s">
-        <v>832</v>
+        <v>805</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15955,10 +15811,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>833</v>
+        <v>806</v>
       </c>
       <c r="F427" t="s">
-        <v>834</v>
+        <v>807</v>
       </c>
       <c r="G427" t="n">
         <v>2</v>
@@ -15984,10 +15840,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>835</v>
+        <v>808</v>
       </c>
       <c r="F428" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16013,10 +15869,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>837</v>
+        <v>810</v>
       </c>
       <c r="F429" t="s">
-        <v>838</v>
+        <v>811</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16042,10 +15898,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>839</v>
+        <v>812</v>
       </c>
       <c r="F430" t="s">
-        <v>840</v>
+        <v>813</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16071,10 +15927,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>841</v>
+        <v>814</v>
       </c>
       <c r="F431" t="s">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16100,10 +15956,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="F432" t="s">
-        <v>844</v>
+        <v>817</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16129,10 +15985,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>845</v>
+        <v>818</v>
       </c>
       <c r="F433" t="s">
-        <v>846</v>
+        <v>819</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16158,10 +16014,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>847</v>
+        <v>820</v>
       </c>
       <c r="F434" t="s">
-        <v>848</v>
+        <v>821</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -16187,10 +16043,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>849</v>
+        <v>822</v>
       </c>
       <c r="F435" t="s">
-        <v>850</v>
+        <v>823</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16216,10 +16072,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>851</v>
+        <v>824</v>
       </c>
       <c r="F436" t="s">
-        <v>852</v>
+        <v>825</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16245,10 +16101,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>853</v>
+        <v>826</v>
       </c>
       <c r="F437" t="s">
-        <v>854</v>
+        <v>827</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16274,10 +16130,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>855</v>
+        <v>828</v>
       </c>
       <c r="F438" t="s">
-        <v>856</v>
+        <v>829</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16303,10 +16159,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>857</v>
+        <v>830</v>
       </c>
       <c r="F439" t="s">
-        <v>858</v>
+        <v>831</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16332,10 +16188,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>859</v>
+        <v>832</v>
       </c>
       <c r="F440" t="s">
-        <v>860</v>
+        <v>833</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16361,10 +16217,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>861</v>
+        <v>834</v>
       </c>
       <c r="F441" t="s">
-        <v>862</v>
+        <v>835</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16390,10 +16246,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>863</v>
+        <v>836</v>
       </c>
       <c r="F442" t="s">
-        <v>864</v>
+        <v>837</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16419,10 +16275,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>865</v>
+        <v>838</v>
       </c>
       <c r="F443" t="s">
-        <v>866</v>
+        <v>839</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16448,10 +16304,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>867</v>
+        <v>840</v>
       </c>
       <c r="F444" t="s">
-        <v>868</v>
+        <v>841</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16477,10 +16333,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>869</v>
+        <v>842</v>
       </c>
       <c r="F445" t="s">
-        <v>870</v>
+        <v>843</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16506,10 +16362,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>871</v>
+        <v>844</v>
       </c>
       <c r="F446" t="s">
-        <v>872</v>
+        <v>845</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16535,10 +16391,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>873</v>
+        <v>846</v>
       </c>
       <c r="F447" t="s">
-        <v>874</v>
+        <v>847</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16564,10 +16420,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>875</v>
+        <v>848</v>
       </c>
       <c r="F448" t="s">
-        <v>876</v>
+        <v>849</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16593,10 +16449,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>877</v>
+        <v>850</v>
       </c>
       <c r="F449" t="s">
-        <v>878</v>
+        <v>851</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16622,10 +16478,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>879</v>
+        <v>852</v>
       </c>
       <c r="F450" t="s">
-        <v>880</v>
+        <v>853</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16651,10 +16507,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>881</v>
+        <v>854</v>
       </c>
       <c r="F451" t="s">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16680,10 +16536,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>883</v>
+        <v>856</v>
       </c>
       <c r="F452" t="s">
-        <v>884</v>
+        <v>857</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16709,10 +16565,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>885</v>
+        <v>858</v>
       </c>
       <c r="F453" t="s">
-        <v>886</v>
+        <v>859</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16738,10 +16594,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>887</v>
+        <v>860</v>
       </c>
       <c r="F454" t="s">
-        <v>888</v>
+        <v>861</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16767,10 +16623,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>889</v>
+        <v>862</v>
       </c>
       <c r="F455" t="s">
-        <v>890</v>
+        <v>863</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16796,10 +16652,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>891</v>
+        <v>864</v>
       </c>
       <c r="F456" t="s">
-        <v>892</v>
+        <v>865</v>
       </c>
       <c r="G456" t="n">
         <v>2</v>
@@ -16825,10 +16681,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>893</v>
+        <v>866</v>
       </c>
       <c r="F457" t="s">
-        <v>894</v>
+        <v>867</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16854,10 +16710,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>895</v>
+        <v>868</v>
       </c>
       <c r="F458" t="s">
-        <v>896</v>
+        <v>869</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16883,10 +16739,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>897</v>
+        <v>870</v>
       </c>
       <c r="F459" t="s">
-        <v>898</v>
+        <v>871</v>
       </c>
       <c r="G459" t="n">
         <v>2</v>
@@ -16912,10 +16768,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>899</v>
+        <v>872</v>
       </c>
       <c r="F460" t="s">
-        <v>900</v>
+        <v>873</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16941,10 +16797,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>901</v>
+        <v>874</v>
       </c>
       <c r="F461" t="s">
-        <v>902</v>
+        <v>875</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -16970,10 +16826,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>903</v>
+        <v>876</v>
       </c>
       <c r="F462" t="s">
-        <v>904</v>
+        <v>877</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16999,10 +16855,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>905</v>
+        <v>878</v>
       </c>
       <c r="F463" t="s">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17028,10 +16884,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>907</v>
+        <v>880</v>
       </c>
       <c r="F464" t="s">
-        <v>908</v>
+        <v>881</v>
       </c>
       <c r="G464" t="n">
         <v>3</v>
@@ -17057,10 +16913,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="F465" t="s">
-        <v>910</v>
+        <v>883</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17086,10 +16942,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>911</v>
+        <v>884</v>
       </c>
       <c r="F466" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17115,10 +16971,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>913</v>
+        <v>886</v>
       </c>
       <c r="F467" t="s">
-        <v>914</v>
+        <v>887</v>
       </c>
       <c r="G467" t="n">
         <v>2</v>
@@ -17144,10 +17000,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>915</v>
+        <v>888</v>
       </c>
       <c r="F468" t="s">
-        <v>916</v>
+        <v>889</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17173,10 +17029,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>917</v>
+        <v>890</v>
       </c>
       <c r="F469" t="s">
-        <v>918</v>
+        <v>891</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17202,10 +17058,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>919</v>
+        <v>892</v>
       </c>
       <c r="F470" t="s">
-        <v>920</v>
+        <v>893</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17231,10 +17087,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>921</v>
+        <v>894</v>
       </c>
       <c r="F471" t="s">
-        <v>922</v>
+        <v>454</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17260,10 +17116,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>923</v>
+        <v>895</v>
       </c>
       <c r="F472" t="s">
-        <v>924</v>
+        <v>459</v>
       </c>
       <c r="G472" t="n">
         <v>2</v>
@@ -17289,10 +17145,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>925</v>
+        <v>896</v>
       </c>
       <c r="F473" t="s">
-        <v>926</v>
+        <v>491</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17318,10 +17174,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>927</v>
+        <v>897</v>
       </c>
       <c r="F474" t="s">
-        <v>928</v>
+        <v>461</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17347,10 +17203,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>929</v>
+        <v>898</v>
       </c>
       <c r="F475" t="s">
-        <v>930</v>
+        <v>444</v>
       </c>
       <c r="G475" t="n">
         <v>2</v>
@@ -17376,10 +17232,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>931</v>
+        <v>899</v>
       </c>
       <c r="F476" t="s">
-        <v>932</v>
+        <v>471</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17405,10 +17261,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>933</v>
+        <v>900</v>
       </c>
       <c r="F477" t="s">
-        <v>934</v>
+        <v>525</v>
       </c>
       <c r="G477" t="n">
         <v>5</v>
@@ -17434,10 +17290,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>935</v>
+        <v>901</v>
       </c>
       <c r="F478" t="s">
-        <v>936</v>
+        <v>902</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17463,10 +17319,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>937</v>
+        <v>903</v>
       </c>
       <c r="F479" t="s">
-        <v>938</v>
+        <v>456</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17492,10 +17348,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>939</v>
+        <v>904</v>
       </c>
       <c r="F480" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="G480" t="n">
         <v>2</v>
@@ -17521,10 +17377,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="F481" t="s">
-        <v>942</v>
+        <v>905</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17550,10 +17406,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>943</v>
+        <v>907</v>
       </c>
       <c r="F482" t="s">
-        <v>944</v>
+        <v>908</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17579,10 +17435,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>945</v>
+        <v>909</v>
       </c>
       <c r="F483" t="s">
-        <v>946</v>
+        <v>910</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17608,10 +17464,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>947</v>
+        <v>911</v>
       </c>
       <c r="F484" t="s">
-        <v>948</v>
+        <v>912</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17637,10 +17493,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>949</v>
+        <v>913</v>
       </c>
       <c r="F485" t="s">
-        <v>950</v>
+        <v>473</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17666,10 +17522,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>951</v>
+        <v>914</v>
       </c>
       <c r="F486" t="s">
-        <v>952</v>
+        <v>448</v>
       </c>
       <c r="G486" t="n">
         <v>5</v>
@@ -17695,10 +17551,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>953</v>
+        <v>915</v>
       </c>
       <c r="F487" t="s">
-        <v>954</v>
+        <v>916</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17724,10 +17580,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>955</v>
+        <v>917</v>
       </c>
       <c r="F488" t="s">
-        <v>956</v>
+        <v>918</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17753,10 +17609,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>957</v>
+        <v>919</v>
       </c>
       <c r="F489" t="s">
-        <v>958</v>
+        <v>920</v>
       </c>
       <c r="G489" t="n">
         <v>3</v>
@@ -17782,10 +17638,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>959</v>
+        <v>921</v>
       </c>
       <c r="F490" t="s">
-        <v>960</v>
+        <v>922</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17811,10 +17667,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>961</v>
+        <v>923</v>
       </c>
       <c r="F491" t="s">
-        <v>962</v>
+        <v>706</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17840,10 +17696,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>963</v>
+        <v>924</v>
       </c>
       <c r="F492" t="s">
-        <v>964</v>
+        <v>925</v>
       </c>
       <c r="G492" t="n">
         <v>2</v>
@@ -17869,10 +17725,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>965</v>
+        <v>926</v>
       </c>
       <c r="F493" t="s">
-        <v>966</v>
+        <v>927</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17898,10 +17754,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>967</v>
+        <v>928</v>
       </c>
       <c r="F494" t="s">
-        <v>968</v>
+        <v>728</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17927,10 +17783,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>969</v>
+        <v>929</v>
       </c>
       <c r="F495" t="s">
-        <v>970</v>
+        <v>720</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17956,10 +17812,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>971</v>
+        <v>930</v>
       </c>
       <c r="F496" t="s">
-        <v>972</v>
+        <v>931</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17985,10 +17841,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>973</v>
+        <v>932</v>
       </c>
       <c r="F497" t="s">
-        <v>974</v>
+        <v>933</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18014,10 +17870,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>975</v>
+        <v>934</v>
       </c>
       <c r="F498" t="s">
-        <v>976</v>
+        <v>935</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18043,10 +17899,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>977</v>
+        <v>936</v>
       </c>
       <c r="F499" t="s">
-        <v>978</v>
+        <v>937</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18072,10 +17928,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>979</v>
+        <v>938</v>
       </c>
       <c r="F500" t="s">
-        <v>980</v>
+        <v>754</v>
       </c>
       <c r="G500" t="n">
         <v>4</v>
@@ -18101,10 +17957,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>981</v>
+        <v>939</v>
       </c>
       <c r="F501" t="s">
-        <v>982</v>
+        <v>940</v>
       </c>
       <c r="G501" t="n">
         <v>2</v>
@@ -18130,10 +17986,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>983</v>
+        <v>941</v>
       </c>
       <c r="F502" t="s">
-        <v>984</v>
+        <v>942</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18159,10 +18015,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>985</v>
+        <v>943</v>
       </c>
       <c r="F503" t="s">
-        <v>986</v>
+        <v>944</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18188,10 +18044,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="F504" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="G504" t="n">
         <v>2</v>
@@ -18217,10 +18073,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>987</v>
+        <v>945</v>
       </c>
       <c r="F505" t="s">
-        <v>988</v>
+        <v>789</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18246,10 +18102,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>989</v>
+        <v>946</v>
       </c>
       <c r="F506" t="s">
-        <v>990</v>
+        <v>947</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18275,10 +18131,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>991</v>
+        <v>948</v>
       </c>
       <c r="F507" t="s">
-        <v>992</v>
+        <v>949</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18304,10 +18160,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>993</v>
+        <v>950</v>
       </c>
       <c r="F508" t="s">
-        <v>994</v>
+        <v>951</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18333,10 +18189,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>995</v>
+        <v>952</v>
       </c>
       <c r="F509" t="s">
-        <v>996</v>
+        <v>953</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18362,10 +18218,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>997</v>
+        <v>954</v>
       </c>
       <c r="F510" t="s">
-        <v>998</v>
+        <v>955</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18391,10 +18247,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>999</v>
+        <v>956</v>
       </c>
       <c r="F511" t="s">
-        <v>1000</v>
+        <v>957</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18420,10 +18276,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>1001</v>
+        <v>958</v>
       </c>
       <c r="F512" t="s">
-        <v>1002</v>
+        <v>959</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18449,10 +18305,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>1003</v>
+        <v>960</v>
       </c>
       <c r="F513" t="s">
-        <v>1004</v>
+        <v>961</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18478,10 +18334,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>1005</v>
+        <v>962</v>
       </c>
       <c r="F514" t="s">
-        <v>1006</v>
+        <v>963</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18507,10 +18363,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1007</v>
+        <v>964</v>
       </c>
       <c r="F515" t="s">
-        <v>1008</v>
+        <v>851</v>
       </c>
       <c r="G515" t="n">
         <v>2</v>
@@ -18536,10 +18392,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>1009</v>
+        <v>965</v>
       </c>
       <c r="F516" t="s">
-        <v>1010</v>
+        <v>966</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18565,10 +18421,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1011</v>
+        <v>967</v>
       </c>
       <c r="F517" t="s">
-        <v>1012</v>
+        <v>968</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18594,10 +18450,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1013</v>
+        <v>969</v>
       </c>
       <c r="F518" t="s">
-        <v>1014</v>
+        <v>970</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18623,10 +18479,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1015</v>
+        <v>971</v>
       </c>
       <c r="F519" t="s">
-        <v>1016</v>
+        <v>972</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18652,10 +18508,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1017</v>
+        <v>973</v>
       </c>
       <c r="F520" t="s">
-        <v>1018</v>
+        <v>974</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18681,10 +18537,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1019</v>
+        <v>975</v>
       </c>
       <c r="F521" t="s">
-        <v>1020</v>
+        <v>976</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18710,10 +18566,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
       <c r="F522" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18739,10 +18595,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1021</v>
+        <v>977</v>
       </c>
       <c r="F523" t="s">
-        <v>1022</v>
+        <v>978</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18768,10 +18624,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1023</v>
+        <v>979</v>
       </c>
       <c r="F524" t="s">
-        <v>1024</v>
+        <v>980</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18797,10 +18653,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="F525" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18826,10 +18682,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1025</v>
+        <v>981</v>
       </c>
       <c r="F526" t="s">
-        <v>1026</v>
+        <v>982</v>
       </c>
       <c r="G526" t="n">
         <v>2</v>
@@ -18855,10 +18711,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1027</v>
+        <v>983</v>
       </c>
       <c r="F527" t="s">
-        <v>1028</v>
+        <v>984</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18884,10 +18740,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1029</v>
+        <v>985</v>
       </c>
       <c r="F528" t="s">
-        <v>1030</v>
+        <v>986</v>
       </c>
       <c r="G528" t="n">
         <v>2</v>
@@ -18913,10 +18769,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1031</v>
+        <v>987</v>
       </c>
       <c r="F529" t="s">
-        <v>1032</v>
+        <v>869</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18942,10 +18798,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1033</v>
+        <v>988</v>
       </c>
       <c r="F530" t="s">
-        <v>1034</v>
+        <v>883</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18971,10 +18827,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1035</v>
+        <v>989</v>
       </c>
       <c r="F531" t="s">
-        <v>1036</v>
+        <v>990</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19000,10 +18856,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1037</v>
+        <v>991</v>
       </c>
       <c r="F532" t="s">
-        <v>1038</v>
+        <v>992</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19029,10 +18885,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1039</v>
+        <v>993</v>
       </c>
       <c r="F533" t="s">
-        <v>1040</v>
+        <v>994</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19058,10 +18914,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1041</v>
+        <v>995</v>
       </c>
       <c r="F534" t="s">
-        <v>1042</v>
+        <v>996</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19087,10 +18943,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1043</v>
+        <v>997</v>
       </c>
       <c r="F535" t="s">
-        <v>1044</v>
+        <v>998</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19116,10 +18972,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1045</v>
+        <v>999</v>
       </c>
       <c r="F536" t="s">
-        <v>1046</v>
+        <v>1000</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19145,10 +19001,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1047</v>
+        <v>1001</v>
       </c>
       <c r="F537" t="s">
-        <v>1048</v>
+        <v>1002</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19174,10 +19030,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1049</v>
+        <v>1003</v>
       </c>
       <c r="F538" t="s">
-        <v>1050</v>
+        <v>1004</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19203,10 +19059,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1051</v>
+        <v>1005</v>
       </c>
       <c r="F539" t="s">
-        <v>1052</v>
+        <v>963</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19232,10 +19088,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1053</v>
+        <v>1006</v>
       </c>
       <c r="F540" t="s">
-        <v>1054</v>
+        <v>813</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19261,10 +19117,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1055</v>
+        <v>1007</v>
       </c>
       <c r="F541" t="s">
-        <v>1056</v>
+        <v>1008</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19290,10 +19146,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1057</v>
+        <v>1009</v>
       </c>
       <c r="F542" t="s">
-        <v>1058</v>
+        <v>1010</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19319,10 +19175,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1059</v>
+        <v>1011</v>
       </c>
       <c r="F543" t="s">
-        <v>1060</v>
+        <v>1012</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19348,10 +19204,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1061</v>
+        <v>1013</v>
       </c>
       <c r="F544" t="s">
-        <v>1062</v>
+        <v>1014</v>
       </c>
       <c r="G544" t="n">
         <v>3</v>
@@ -19377,10 +19233,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1063</v>
+        <v>1015</v>
       </c>
       <c r="F545" t="s">
-        <v>1064</v>
+        <v>1016</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19406,10 +19262,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1065</v>
+        <v>1017</v>
       </c>
       <c r="F546" t="s">
-        <v>1066</v>
+        <v>1018</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19435,10 +19291,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1067</v>
+        <v>1019</v>
       </c>
       <c r="F547" t="s">
-        <v>1068</v>
+        <v>1020</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19464,10 +19320,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1069</v>
+        <v>1021</v>
       </c>
       <c r="F548" t="s">
-        <v>1070</v>
+        <v>1022</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19493,10 +19349,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1071</v>
+        <v>1023</v>
       </c>
       <c r="F549" t="s">
-        <v>1072</v>
+        <v>1024</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>

--- a/xlsx/格鲁吉亚_intext.xlsx
+++ b/xlsx/格鲁吉亚_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1081">
   <si>
     <t>格鲁吉亚</t>
   </si>
@@ -29,7 +29,7 @@
     <t>佐治亞州</t>
   </si>
   <si>
-    <t>政策_政策_美國_格鲁吉亚</t>
+    <t>体育运动_体育运动_伊朗_格鲁吉亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%9C%8B%E6%97%97</t>
@@ -272,762 +272,768 @@
     <t>喬治亞總理</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%A5%A5%E5%B0%94%E5%9F%BA%C2%B7%E5%85%8B%E7%BB%B4%E9%87%8C%E5%8D%A1%E4%BB%80%E7%BB%B4%E5%88%A9</t>
+  </si>
+  <si>
+    <t>格奥尔基·克维里卡什维利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
+  </si>
+  <si>
+    <t>國內生產總值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
+  </si>
+  <si>
+    <t>購買力平價</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>2016年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>人類發展指數</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>2015年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>中央銀行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>喬治亞國家銀行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%87%8C</t>
+  </si>
+  <si>
+    <t>拉里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>格魯吉亞國旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
+  </si>
+  <si>
+    <t>ISO 3166-1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
+  </si>
+  <si>
+    <t>國際域名縮寫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/.ge</t>
+  </si>
+  <si>
+    <t>.ge</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>國際電話區號列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_9984</t>
+  </si>
+  <si>
+    <t>ISO 9984</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>东欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B9%E7%BB%B4%E4%BA%9A%E5%BE%B7%C2%B7%E5%8A%A0%E5%A7%86%E8%90%A8%E8%83%A1%E5%B0%94%E5%AD%A3%E9%98%BF</t>
+  </si>
+  <si>
+    <t>兹维亚德·加姆萨胡尔季阿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E5%9B%BD%E5%AE%B6%E8%81%94%E5%90%88%E4%BD%93</t>
+  </si>
+  <si>
+    <t>独立国家联合体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>2008年南奥塞梯战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E5%85%B9</t>
+  </si>
+  <si>
+    <t>阿布哈兹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A7%E5%A1%9E%E6%A2%AF</t>
+  </si>
+  <si>
+    <t>南奧塞梯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A%E6%97%8F</t>
+  </si>
+  <si>
+    <t>亚美尼亚族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E6%97%8F</t>
+  </si>
+  <si>
+    <t>俄罗斯族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86%E6%97%8F</t>
+  </si>
+  <si>
+    <t>阿塞拜疆族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>俄语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AD%A3%E6%95%99</t>
+  </si>
+  <si>
+    <t>东正教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>伊斯兰教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>黑海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>亚美尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
+  </si>
+  <si>
+    <t>阿塞拜疆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E9%A0%98%E5%B0%8E%E4%BA%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>蘇聯領導人列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E6%96%AF%E5%A4%A7%E6%9E%97</t>
+  </si>
+  <si>
+    <t>约瑟夫·斯大林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>歐盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>西方国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%8C%96</t>
+  </si>
+  <si>
+    <t>拉丁化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>喬治亞人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E8%A9%B1</t>
+  </si>
+  <si>
+    <t>普通話</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>格魯吉亞語</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
+  </si>
+  <si>
+    <t>聖經</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%BC%97</t>
+  </si>
+  <si>
+    <t>雅弗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E5%88%A9</t>
+  </si>
+  <si>
+    <t>卡特利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>高加索伊比利亞王國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>東羅馬帝國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>波斯語</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/-%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>-斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90</t>
+  </si>
+  <si>
+    <t>西歐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>俄語</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
+  </si>
+  <si>
+    <t>北歐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
+  </si>
+  <si>
+    <t>北美</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E</t>
+  </si>
+  <si>
+    <t>南美</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>希臘語</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>拉丁語</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>羅馬帝國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%96%AC%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>聖喬治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>波斯帝國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>蘇聯加盟共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>母語</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>中國大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
+  </si>
+  <si>
+    <t>臺灣</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>格魯吉亞歷史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E9%93%9C%E5%99%A8%E6%97%B6%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>青铜器时代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD</t>
+  </si>
+  <si>
+    <t>部落</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E9%93%9C%E5%99%A8</t>
+  </si>
+  <si>
+    <t>青铜器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
+  </si>
+  <si>
+    <t>基督教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E6%96%87</t>
+  </si>
+  <si>
+    <t>希腊文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A%E6%96%87</t>
+  </si>
+  <si>
+    <t>叙利亚文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>东罗马帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>波斯帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>阿拉伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>蒙古帝國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%96%E6%9C%A8%E5%84%BF</t>
+  </si>
+  <si>
+    <t>帖木儿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>奥斯曼帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>君士坦丁堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>伊拉克戰爭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E4%BF%84</t>
+  </si>
+  <si>
+    <t>沙俄</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E%E8%98%87%E7%B6%AD%E5%9F%83%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>格魯吉亞蘇維埃社會主義共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%B0%94%E5%B7%B4%E4%B9%94%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>戈尔巴乔夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%85%B1%E4%BA%A7%E5%85%9A%E4%B8%AD%E5%A4%AE%E5%A7%94%E5%91%98%E4%BC%9A%E6%80%BB%E4%B9%A6%E8%AE%B0</t>
+  </si>
+  <si>
+    <t>苏联共产党中央委员会总书记</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E6%9C%80%E9%AB%98%E9%A0%98%E5%B0%8E%E4%BA%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>蘇聯最高領導人列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>開放政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>经济改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%B7%B4%E5%A5%91%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>戈巴契夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E4%B8%80%E4%B9%9D%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>八一九事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AB%E7%91%B0%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>玫瑰革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E7%93%A6%E7%B4%8D%E8%8C%B2</t>
+  </si>
+  <si>
+    <t>謝瓦納茲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%C2%B7%E8%96%A9%E5%8D%A1%E5%B8%8C%E7%B6%AD%E5%88%A9</t>
+  </si>
+  <si>
+    <t>米哈伊·薩卡希維利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>俄羅斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A7%E5%A1%9E%E6%A2%AF%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>南奧塞梯戰爭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%BB%8D%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>俄羅斯軍隊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%8D%A1%E4%BB%80%E7%B6%AD%E5%88%A9</t>
+  </si>
+  <si>
+    <t>薩卡什維利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>歐洲聯盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A7%E5%A1%9E%E6%8F%90%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>南奧塞提亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E8%8C%B2</t>
+  </si>
+  <si>
+    <t>阿布哈茲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
+  </si>
+  <si>
+    <t>半總統制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
+  </si>
+  <si>
+    <t>議會制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>格鲁吉亚地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E8%81%94%E9%82%A6</t>
+  </si>
+  <si>
+    <t>俄罗斯联邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>公里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%AB%98%E5%8A%A0%E7%B4%A2%E8%81%94%E9%82%A6%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北高加索联邦区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E6%96%AF%E8%AF%BA%E8%BE%BE%E5%B0%94</t>
+  </si>
+  <si>
+    <t>克拉斯诺达尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E6%81%B0%E4%BC%8A-%E5%88%87%E5%B0%94%E5%85%8B%E6%96%AF%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>卡拉恰伊-切尔克斯共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B7%B4%E5%B0%94%E8%BE%BE-%E5%B7%B4%E5%B0%94%E5%8D%A1%E5%B0%94%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>卡巴尔达-巴尔卡尔共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A5%A5%E5%A1%9E%E6%A2%AF</t>
+  </si>
+  <si>
+    <t>北奥塞梯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%8F%A4%E4%BB%80%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>印古什共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BD%A6%E8%87%A3%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>车臣共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%90%89%E6%96%AF%E5%9D%A6%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>达吉斯坦共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E6%8B%89%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>库拉河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A5%A5%E5%B0%BC%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>里奥尼河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>喬治亞政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%BB%A8%E5%88%B6</t>
+  </si>
+  <si>
+    <t>多黨制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3%E5%88%B6</t>
+  </si>
+  <si>
+    <t>內閣制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E4%BC%9A%E8%AE%AE%E5%91%98</t>
+  </si>
+  <si>
+    <t>国会议员</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84</t>
+  </si>
+  <si>
+    <t>北約</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E4%B8%80%E6%B0%91%E6%97%8F%E8%BF%90%E5%8A%A8%E5%85%9A</t>
+  </si>
+  <si>
+    <t>统一民族运动党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E5%B7%B4%E5%8D%A1%E6%8B%89%E6%BE%A4</t>
+  </si>
+  <si>
+    <t>大衛·巴卡拉澤</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A%E6%A2%A6%E6%83%B3</t>
+  </si>
+  <si>
+    <t>格鲁吉亚梦想</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E9%87%8C%C2%B7%E5%8A%A0%E9%87%8C%E5%B7%B4%E4%BB%80%E7%BB%B4%E5%88%A9</t>
   </si>
   <si>
     <t>伊拉克里·加里巴什维利</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
-  </si>
-  <si>
-    <t>國內生產總值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
-  </si>
-  <si>
-    <t>購買力平價</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>2016年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>人類發展指數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>2015年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>中央銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>喬治亞國家銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%87%8C</t>
-  </si>
-  <si>
-    <t>拉里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>格魯吉亞國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
-  </si>
-  <si>
-    <t>ISO 3166-1</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
-  </si>
-  <si>
-    <t>國際域名縮寫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/.ge</t>
-  </si>
-  <si>
-    <t>.ge</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國際電話區號列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_9984</t>
-  </si>
-  <si>
-    <t>ISO 9984</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>东欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>苏联加盟共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B9%E7%BB%B4%E4%BA%9A%E5%BE%B7%C2%B7%E5%8A%A0%E5%A7%86%E8%90%A8%E8%83%A1%E5%B0%94%E5%AD%A3%E9%98%BF</t>
-  </si>
-  <si>
-    <t>兹维亚德·加姆萨胡尔季阿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E5%9B%BD%E5%AE%B6%E8%81%94%E5%90%88%E4%BD%93</t>
-  </si>
-  <si>
-    <t>独立国家联合体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>2008年南奥塞梯战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E5%85%B9</t>
-  </si>
-  <si>
-    <t>阿布哈兹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A7%E5%A1%9E%E6%A2%AF</t>
-  </si>
-  <si>
-    <t>南奧塞梯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A%E6%97%8F</t>
-  </si>
-  <si>
-    <t>亚美尼亚族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E6%97%8F</t>
-  </si>
-  <si>
-    <t>俄罗斯族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86%E6%97%8F</t>
-  </si>
-  <si>
-    <t>阿塞拜疆族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>俄语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AD%A3%E6%95%99</t>
-  </si>
-  <si>
-    <t>东正教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>伊斯兰教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>黑海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E9%A0%98%E5%B0%8E%E4%BA%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>蘇聯領導人列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E6%96%AF%E5%A4%A7%E6%9E%97</t>
-  </si>
-  <si>
-    <t>约瑟夫·斯大林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>歐盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>西方国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%8C%96</t>
-  </si>
-  <si>
-    <t>拉丁化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>喬治亞人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E8%A9%B1</t>
-  </si>
-  <si>
-    <t>普通話</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>格魯吉亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
-  </si>
-  <si>
-    <t>聖經</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%BC%97</t>
-  </si>
-  <si>
-    <t>雅弗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E5%88%A9</t>
-  </si>
-  <si>
-    <t>卡特利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>高加索伊比利亞王國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>東羅馬帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>波斯語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/-%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>-斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90</t>
-  </si>
-  <si>
-    <t>西歐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>俄語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
-  </si>
-  <si>
-    <t>北歐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
-  </si>
-  <si>
-    <t>北美</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E</t>
-  </si>
-  <si>
-    <t>南美</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>希臘語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>拉丁語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>羅馬帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%96%AC%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>聖喬治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>波斯帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>蘇聯加盟共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>母語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>中國大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
-  </si>
-  <si>
-    <t>臺灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E%E6%AD%B7%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>格魯吉亞歷史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E9%93%9C%E5%99%A8%E6%97%B6%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>青铜器时代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD</t>
-  </si>
-  <si>
-    <t>部落</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E9%93%9C%E5%99%A8</t>
-  </si>
-  <si>
-    <t>青铜器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
-  </si>
-  <si>
-    <t>基督教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E6%96%87</t>
-  </si>
-  <si>
-    <t>希腊文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A%E6%96%87</t>
-  </si>
-  <si>
-    <t>叙利亚文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>东罗马帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>波斯帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>阿拉伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>蒙古帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%96%E6%9C%A8%E5%84%BF</t>
-  </si>
-  <si>
-    <t>帖木儿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>奥斯曼帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>君士坦丁堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>伊拉克戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E4%BF%84</t>
-  </si>
-  <si>
-    <t>沙俄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E%E8%98%87%E7%B6%AD%E5%9F%83%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>格魯吉亞蘇維埃社會主義共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%B0%94%E5%B7%B4%E4%B9%94%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>戈尔巴乔夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%85%B1%E4%BA%A7%E5%85%9A%E4%B8%AD%E5%A4%AE%E5%A7%94%E5%91%98%E4%BC%9A%E6%80%BB%E4%B9%A6%E8%AE%B0</t>
-  </si>
-  <si>
-    <t>苏联共产党中央委员会总书记</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E6%9C%80%E9%AB%98%E9%A0%98%E5%B0%8E%E4%BA%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>蘇聯最高領導人列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>開放政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>经济改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%B7%B4%E5%A5%91%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>戈巴契夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E4%B8%80%E4%B9%9D%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>八一九事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AB%E7%91%B0%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>玫瑰革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E7%93%A6%E7%B4%8D%E8%8C%B2</t>
-  </si>
-  <si>
-    <t>謝瓦納茲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%C2%B7%E8%96%A9%E5%8D%A1%E5%B8%8C%E7%B6%AD%E5%88%A9</t>
-  </si>
-  <si>
-    <t>米哈伊·薩卡希維利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A7%E5%A1%9E%E6%A2%AF%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>南奧塞梯戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%BB%8D%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>俄羅斯軍隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%8D%A1%E4%BB%80%E7%B6%AD%E5%88%A9</t>
-  </si>
-  <si>
-    <t>薩卡什維利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>歐洲聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A7%E5%A1%9E%E6%8F%90%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>南奧塞提亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E8%8C%B2</t>
-  </si>
-  <si>
-    <t>阿布哈茲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
-  </si>
-  <si>
-    <t>半總統制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
-  </si>
-  <si>
-    <t>議會制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>格鲁吉亚地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E8%81%94%E9%82%A6</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>公里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%AB%98%E5%8A%A0%E7%B4%A2%E8%81%94%E9%82%A6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北高加索联邦区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E6%96%AF%E8%AF%BA%E8%BE%BE%E5%B0%94</t>
-  </si>
-  <si>
-    <t>克拉斯诺达尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E6%81%B0%E4%BC%8A-%E5%88%87%E5%B0%94%E5%85%8B%E6%96%AF%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>卡拉恰伊-切尔克斯共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B7%B4%E5%B0%94%E8%BE%BE-%E5%B7%B4%E5%B0%94%E5%8D%A1%E5%B0%94%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>卡巴尔达-巴尔卡尔共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A5%A5%E5%A1%9E%E6%A2%AF</t>
-  </si>
-  <si>
-    <t>北奥塞梯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%8F%A4%E4%BB%80%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>印古什共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BD%A6%E8%87%A3%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>车臣共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%90%89%E6%96%AF%E5%9D%A6%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>达吉斯坦共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>高加索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E6%8B%89%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>库拉河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A5%A5%E5%B0%BC%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>里奥尼河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>喬治亞政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%BB%A8%E5%88%B6</t>
-  </si>
-  <si>
-    <t>多黨制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3%E5%88%B6</t>
-  </si>
-  <si>
-    <t>內閣制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E4%BC%9A%E8%AE%AE%E5%91%98</t>
-  </si>
-  <si>
-    <t>国会议员</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84</t>
-  </si>
-  <si>
-    <t>北約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E4%B8%80%E6%B0%91%E6%97%8F%E8%BF%90%E5%8A%A8%E5%85%9A</t>
-  </si>
-  <si>
-    <t>统一民族运动党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E5%B7%B4%E5%8D%A1%E6%8B%89%E6%BE%A4</t>
-  </si>
-  <si>
-    <t>大衛·巴卡拉澤</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A%E6%A2%A6%E6%83%B3</t>
-  </si>
-  <si>
-    <t>格鲁吉亚梦想</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
@@ -1406,10 +1412,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -1520,10 +1550,10 @@
     <t>列支敦斯登</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -1562,10 +1592,10 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -1652,18 +1682,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -1688,10 +1718,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1748,18 +1778,18 @@
     <t>色雷斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
   </si>
   <si>
@@ -2838,12 +2868,6 @@
   </si>
   <si>
     <t>荷蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
-  </si>
-  <si>
-    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
@@ -3582,7 +3606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I549"/>
+  <dimension ref="A1:I554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4535,7 +4559,7 @@
         <v>60</v>
       </c>
       <c r="G33" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -4912,7 +4936,7 @@
         <v>86</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -5811,7 +5835,7 @@
         <v>148</v>
       </c>
       <c r="G77" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -8247,7 +8271,7 @@
         <v>316</v>
       </c>
       <c r="G161" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -9088,7 +9112,7 @@
         <v>374</v>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -9117,7 +9141,7 @@
         <v>376</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -9349,7 +9373,7 @@
         <v>392</v>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -9378,7 +9402,7 @@
         <v>394</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -9407,7 +9431,7 @@
         <v>396</v>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -9436,7 +9460,7 @@
         <v>398</v>
       </c>
       <c r="G202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -9465,7 +9489,7 @@
         <v>400</v>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -9604,13 +9628,13 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>129</v>
+        <v>409</v>
       </c>
       <c r="F208" t="s">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="G208" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -9633,13 +9657,13 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>129</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>130</v>
       </c>
       <c r="G209" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -9668,7 +9692,7 @@
         <v>412</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -9871,7 +9895,7 @@
         <v>426</v>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -9900,7 +9924,7 @@
         <v>428</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -9923,10 +9947,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>177</v>
+        <v>429</v>
       </c>
       <c r="F219" t="s">
-        <v>178</v>
+        <v>430</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9952,10 +9976,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>177</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>178</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9987,7 +10011,7 @@
         <v>432</v>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -10016,7 +10040,7 @@
         <v>434</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -10248,7 +10272,7 @@
         <v>450</v>
       </c>
       <c r="G230" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -10277,7 +10301,7 @@
         <v>452</v>
       </c>
       <c r="G231" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -10306,7 +10330,7 @@
         <v>454</v>
       </c>
       <c r="G232" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -10335,7 +10359,7 @@
         <v>456</v>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -10364,7 +10388,7 @@
         <v>458</v>
       </c>
       <c r="G234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -10422,7 +10446,7 @@
         <v>462</v>
       </c>
       <c r="G236" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -10480,7 +10504,7 @@
         <v>466</v>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -10509,7 +10533,7 @@
         <v>468</v>
       </c>
       <c r="G239" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -10538,7 +10562,7 @@
         <v>470</v>
       </c>
       <c r="G240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -10596,7 +10620,7 @@
         <v>474</v>
       </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -10654,7 +10678,7 @@
         <v>478</v>
       </c>
       <c r="G244" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -10712,7 +10736,7 @@
         <v>482</v>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -10741,7 +10765,7 @@
         <v>484</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -10799,7 +10823,7 @@
         <v>488</v>
       </c>
       <c r="G249" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -10828,7 +10852,7 @@
         <v>490</v>
       </c>
       <c r="G250" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -10857,7 +10881,7 @@
         <v>492</v>
       </c>
       <c r="G251" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -10886,7 +10910,7 @@
         <v>494</v>
       </c>
       <c r="G252" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -10915,7 +10939,7 @@
         <v>496</v>
       </c>
       <c r="G253" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -10944,7 +10968,7 @@
         <v>498</v>
       </c>
       <c r="G254" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -10973,7 +10997,7 @@
         <v>500</v>
       </c>
       <c r="G255" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -11002,7 +11026,7 @@
         <v>502</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -11031,7 +11055,7 @@
         <v>504</v>
       </c>
       <c r="G257" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -11060,7 +11084,7 @@
         <v>506</v>
       </c>
       <c r="G258" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -11089,7 +11113,7 @@
         <v>508</v>
       </c>
       <c r="G259" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -11118,7 +11142,7 @@
         <v>510</v>
       </c>
       <c r="G260" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -11141,13 +11165,13 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>119</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>120</v>
       </c>
       <c r="G261" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -11170,13 +11194,13 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G262" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -11199,13 +11223,13 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -11228,13 +11252,13 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G264" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -11257,13 +11281,13 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G265" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -11286,13 +11310,13 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -11315,13 +11339,13 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -11344,13 +11368,13 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G268" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -11373,13 +11397,13 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -11402,13 +11426,13 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -11431,13 +11455,13 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -11460,13 +11484,13 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -11489,13 +11513,13 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G273" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -11518,13 +11542,13 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -11547,13 +11571,13 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G275" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -11576,13 +11600,13 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G276" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -11605,13 +11629,13 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G277" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -11634,13 +11658,13 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -11663,13 +11687,13 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -11692,13 +11716,13 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -11721,13 +11745,13 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G281" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -11750,13 +11774,13 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F282" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -11779,13 +11803,13 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F283" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -11808,10 +11832,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F284" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11837,10 +11861,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F285" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11866,13 +11890,13 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F286" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -11895,13 +11919,13 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F287" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G287" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -11924,13 +11948,13 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F288" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -11953,13 +11977,13 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F289" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -11982,10 +12006,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F290" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12011,13 +12035,13 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F291" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -12040,10 +12064,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F292" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12069,13 +12093,13 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F293" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -12098,13 +12122,13 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F294" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G294" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -12127,10 +12151,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F295" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12156,10 +12180,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F296" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12185,13 +12209,13 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F297" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -12214,10 +12238,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F298" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12243,10 +12267,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F299" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12272,10 +12296,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F300" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12301,13 +12325,13 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F301" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -12330,10 +12354,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F302" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12359,10 +12383,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F303" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12388,13 +12412,13 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F304" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -12417,13 +12441,13 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F305" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -12446,13 +12470,13 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F306" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G306" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -12475,13 +12499,13 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F307" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G307" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -12504,10 +12528,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F308" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12533,10 +12557,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F309" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12562,13 +12586,13 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F310" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
@@ -12591,13 +12615,13 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F311" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -12620,13 +12644,13 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F312" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G312" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -12649,13 +12673,13 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F313" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -12678,13 +12702,13 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F314" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -12707,10 +12731,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F315" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12736,10 +12760,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F316" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12765,10 +12789,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F317" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12794,13 +12818,13 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F318" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -12823,10 +12847,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F319" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12852,13 +12876,13 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F320" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -12881,10 +12905,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F321" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12910,10 +12934,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F322" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12939,10 +12963,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F323" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12968,10 +12992,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>559</v>
+        <v>635</v>
       </c>
       <c r="F324" t="s">
-        <v>560</v>
+        <v>636</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13032,7 +13056,7 @@
         <v>640</v>
       </c>
       <c r="G326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -13055,10 +13079,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>565</v>
+        <v>641</v>
       </c>
       <c r="F327" t="s">
-        <v>566</v>
+        <v>642</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13084,13 +13108,13 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F328" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -13113,10 +13137,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F329" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13142,10 +13166,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>645</v>
+        <v>569</v>
       </c>
       <c r="F330" t="s">
-        <v>646</v>
+        <v>570</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13206,7 +13230,7 @@
         <v>650</v>
       </c>
       <c r="G332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -13229,10 +13253,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>651</v>
+        <v>575</v>
       </c>
       <c r="F333" t="s">
-        <v>652</v>
+        <v>576</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13258,13 +13282,13 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F334" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -13287,10 +13311,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F335" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13316,13 +13340,13 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F336" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -13345,10 +13369,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F337" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13374,10 +13398,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F338" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13403,10 +13427,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F339" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13432,10 +13456,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F340" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13461,10 +13485,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F341" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13490,10 +13514,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F342" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13519,10 +13543,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F343" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13548,10 +13572,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F344" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13577,10 +13601,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>425</v>
+        <v>673</v>
       </c>
       <c r="F345" t="s">
-        <v>426</v>
+        <v>674</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13751,10 +13775,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>685</v>
+        <v>427</v>
       </c>
       <c r="F351" t="s">
-        <v>686</v>
+        <v>428</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13780,10 +13804,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F352" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13809,10 +13833,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F353" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13838,10 +13862,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F354" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13867,10 +13891,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F355" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13896,10 +13920,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F356" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13925,13 +13949,13 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F357" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G357" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -13954,10 +13978,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>597</v>
+        <v>697</v>
       </c>
       <c r="F358" t="s">
-        <v>598</v>
+        <v>698</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13989,7 +14013,7 @@
         <v>700</v>
       </c>
       <c r="G359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
@@ -14047,7 +14071,7 @@
         <v>704</v>
       </c>
       <c r="G361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -14105,7 +14129,7 @@
         <v>708</v>
       </c>
       <c r="G363" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H363" t="s">
         <v>4</v>
@@ -14128,10 +14152,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>709</v>
+        <v>607</v>
       </c>
       <c r="F364" t="s">
-        <v>710</v>
+        <v>608</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14157,13 +14181,13 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F365" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H365" t="s">
         <v>4</v>
@@ -14186,10 +14210,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F366" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14215,13 +14239,13 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F367" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -14244,10 +14268,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F368" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14273,10 +14297,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F369" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14302,13 +14326,13 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F370" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H370" t="s">
         <v>4</v>
@@ -14331,10 +14355,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F371" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14360,13 +14384,13 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F372" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -14389,13 +14413,13 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F373" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H373" t="s">
         <v>4</v>
@@ -14418,13 +14442,13 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F374" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H374" t="s">
         <v>4</v>
@@ -14447,10 +14471,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F375" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14476,10 +14500,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F376" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -14505,13 +14529,13 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F377" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -14534,10 +14558,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F378" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -14563,13 +14587,13 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F379" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -14592,10 +14616,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F380" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -14621,10 +14645,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F381" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14650,13 +14674,13 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F382" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H382" t="s">
         <v>4</v>
@@ -14679,13 +14703,13 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F383" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H383" t="s">
         <v>4</v>
@@ -14708,13 +14732,13 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F384" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H384" t="s">
         <v>4</v>
@@ -14737,10 +14761,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F385" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14766,13 +14790,13 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F386" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H386" t="s">
         <v>4</v>
@@ -14795,10 +14819,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F387" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14824,10 +14848,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F388" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14853,10 +14877,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F389" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14882,10 +14906,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F390" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14911,13 +14935,13 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F391" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -14940,10 +14964,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F392" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14969,10 +14993,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F393" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14998,10 +15022,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>533</v>
+        <v>767</v>
       </c>
       <c r="F394" t="s">
-        <v>534</v>
+        <v>768</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15091,7 +15115,7 @@
         <v>774</v>
       </c>
       <c r="G397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -15172,13 +15196,13 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>779</v>
+        <v>543</v>
       </c>
       <c r="F400" t="s">
-        <v>780</v>
+        <v>544</v>
       </c>
       <c r="G400" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H400" t="s">
         <v>4</v>
@@ -15201,13 +15225,13 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F401" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H401" t="s">
         <v>4</v>
@@ -15230,10 +15254,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F402" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15259,13 +15283,13 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F403" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H403" t="s">
         <v>4</v>
@@ -15288,10 +15312,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F404" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15317,10 +15341,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F405" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15346,13 +15370,13 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F406" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G406" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H406" t="s">
         <v>4</v>
@@ -15375,10 +15399,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F407" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -15404,10 +15428,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F408" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15433,13 +15457,13 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F409" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G409" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H409" t="s">
         <v>4</v>
@@ -15462,10 +15486,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F410" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15491,10 +15515,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F411" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15520,10 +15544,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F412" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15549,13 +15573,13 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F413" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H413" t="s">
         <v>4</v>
@@ -15578,10 +15602,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F414" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15607,10 +15631,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F415" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15636,10 +15660,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F416" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15665,10 +15689,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F417" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15694,10 +15718,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F418" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15723,10 +15747,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F419" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15752,10 +15776,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F420" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15781,10 +15805,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F421" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15810,10 +15834,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F422" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15839,10 +15863,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F423" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15868,10 +15892,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F424" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15897,13 +15921,13 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F425" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -15926,10 +15950,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F426" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15955,13 +15979,13 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F427" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -15984,10 +16008,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F428" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16013,10 +16037,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F429" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16042,10 +16066,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F430" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16071,13 +16095,13 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F431" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H431" t="s">
         <v>4</v>
@@ -16100,10 +16124,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F432" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16129,13 +16153,13 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F433" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H433" t="s">
         <v>4</v>
@@ -16158,13 +16182,13 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F434" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H434" t="s">
         <v>4</v>
@@ -16187,10 +16211,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F435" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16216,10 +16240,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F436" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16245,10 +16269,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F437" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16274,10 +16298,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F438" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16303,10 +16327,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F439" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16332,13 +16356,13 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F440" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H440" t="s">
         <v>4</v>
@@ -16361,10 +16385,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F441" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16390,10 +16414,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F442" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16419,10 +16443,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F443" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16448,10 +16472,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F444" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16477,10 +16501,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F445" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16506,10 +16530,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F446" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16535,10 +16559,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F447" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16564,10 +16588,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F448" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16593,10 +16617,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F449" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16622,10 +16646,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F450" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16651,10 +16675,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F451" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16680,10 +16704,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F452" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16709,10 +16733,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F453" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16738,10 +16762,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F454" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16767,10 +16791,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F455" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16796,13 +16820,13 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F456" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H456" t="s">
         <v>4</v>
@@ -16825,10 +16849,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F457" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16854,10 +16878,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F458" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16883,13 +16907,13 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F459" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H459" t="s">
         <v>4</v>
@@ -16912,10 +16936,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F460" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16941,13 +16965,13 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F461" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H461" t="s">
         <v>4</v>
@@ -16970,13 +16994,13 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F462" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H462" t="s">
         <v>4</v>
@@ -16999,10 +17023,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F463" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17028,13 +17052,13 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F464" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G464" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H464" t="s">
         <v>4</v>
@@ -17057,13 +17081,13 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F465" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H465" t="s">
         <v>4</v>
@@ -17086,10 +17110,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F466" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17115,10 +17139,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F467" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G467" t="n">
         <v>2</v>
@@ -17144,10 +17168,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F468" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17173,10 +17197,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F469" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17202,13 +17226,13 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F470" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G470" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H470" t="s">
         <v>4</v>
@@ -17231,10 +17255,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F471" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17260,13 +17284,13 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F472" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H472" t="s">
         <v>4</v>
@@ -17289,13 +17313,13 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F473" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H473" t="s">
         <v>4</v>
@@ -17318,10 +17342,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F474" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17347,13 +17371,13 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F475" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H475" t="s">
         <v>4</v>
@@ -17376,10 +17400,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F476" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17405,13 +17429,13 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F477" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G477" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H477" t="s">
         <v>4</v>
@@ -17434,13 +17458,13 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F478" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G478" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H478" t="s">
         <v>4</v>
@@ -17463,10 +17487,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F479" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17492,13 +17516,13 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F480" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H480" t="s">
         <v>4</v>
@@ -17521,13 +17545,13 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F481" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H481" t="s">
         <v>4</v>
@@ -17550,10 +17574,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F482" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17579,13 +17603,13 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F483" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G483" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H483" t="s">
         <v>4</v>
@@ -17608,10 +17632,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F484" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17637,10 +17661,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F485" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17666,13 +17690,13 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F486" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G486" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H486" t="s">
         <v>4</v>
@@ -17695,10 +17719,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F487" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17724,10 +17748,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F488" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17753,13 +17777,13 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F489" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G489" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H489" t="s">
         <v>4</v>
@@ -17782,10 +17806,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F490" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17811,13 +17835,13 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F491" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G491" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H491" t="s">
         <v>4</v>
@@ -17840,13 +17864,13 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F492" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H492" t="s">
         <v>4</v>
@@ -17869,10 +17893,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F493" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17898,13 +17922,13 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F494" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G494" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H494" t="s">
         <v>4</v>
@@ -17927,10 +17951,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F495" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17956,10 +17980,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F496" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17985,13 +18009,13 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F497" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G497" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H497" t="s">
         <v>4</v>
@@ -18014,10 +18038,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F498" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18043,10 +18067,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F499" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18072,13 +18096,13 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F500" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G500" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H500" t="s">
         <v>4</v>
@@ -18101,13 +18125,13 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F501" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H501" t="s">
         <v>4</v>
@@ -18130,10 +18154,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F502" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18159,10 +18183,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F503" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18188,13 +18212,13 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>533</v>
+        <v>985</v>
       </c>
       <c r="F504" t="s">
-        <v>534</v>
+        <v>986</v>
       </c>
       <c r="G504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H504" t="s">
         <v>4</v>
@@ -18223,7 +18247,7 @@
         <v>988</v>
       </c>
       <c r="G505" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H505" t="s">
         <v>4</v>
@@ -18252,7 +18276,7 @@
         <v>990</v>
       </c>
       <c r="G506" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H506" t="s">
         <v>4</v>
@@ -18333,13 +18357,13 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>995</v>
+        <v>543</v>
       </c>
       <c r="F509" t="s">
-        <v>996</v>
+        <v>544</v>
       </c>
       <c r="G509" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H509" t="s">
         <v>4</v>
@@ -18362,10 +18386,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F510" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18391,10 +18415,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F511" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18420,10 +18444,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F512" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18449,10 +18473,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F513" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18478,10 +18502,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F514" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18507,13 +18531,13 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F515" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G515" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H515" t="s">
         <v>4</v>
@@ -18536,10 +18560,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F516" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18565,10 +18589,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F517" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18594,10 +18618,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F518" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18623,10 +18647,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F519" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18652,13 +18676,13 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F520" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G520" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H520" t="s">
         <v>4</v>
@@ -18681,10 +18705,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F521" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18710,10 +18734,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>805</v>
+        <v>1019</v>
       </c>
       <c r="F522" t="s">
-        <v>806</v>
+        <v>1020</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18797,10 +18821,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>521</v>
+        <v>1025</v>
       </c>
       <c r="F525" t="s">
-        <v>522</v>
+        <v>1026</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18826,13 +18850,13 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="F526" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="G526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H526" t="s">
         <v>4</v>
@@ -18855,10 +18879,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1027</v>
+        <v>815</v>
       </c>
       <c r="F527" t="s">
-        <v>1028</v>
+        <v>816</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18890,7 +18914,7 @@
         <v>1030</v>
       </c>
       <c r="G528" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H528" t="s">
         <v>4</v>
@@ -18942,10 +18966,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1033</v>
+        <v>531</v>
       </c>
       <c r="F530" t="s">
-        <v>1034</v>
+        <v>532</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18971,13 +18995,13 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F531" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="G531" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H531" t="s">
         <v>4</v>
@@ -19000,10 +19024,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F532" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19029,13 +19053,13 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F533" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G533" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H533" t="s">
         <v>4</v>
@@ -19058,10 +19082,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F534" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19087,10 +19111,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F535" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19116,10 +19140,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F536" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19145,10 +19169,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F537" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19174,10 +19198,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F538" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19203,10 +19227,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F539" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19232,10 +19256,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F540" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19261,10 +19285,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F541" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19290,10 +19314,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F542" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19319,10 +19343,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F543" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19348,13 +19372,13 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F544" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="G544" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H544" t="s">
         <v>4</v>
@@ -19377,10 +19401,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F545" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19406,10 +19430,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F546" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19435,10 +19459,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F547" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19464,10 +19488,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F548" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19493,18 +19517,163 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F549" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G549" t="n">
+        <v>3</v>
+      </c>
+      <c r="H549" t="s">
+        <v>4</v>
+      </c>
+      <c r="I549" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="s">
+        <v>0</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1</v>
+      </c>
+      <c r="D550" t="n">
+        <v>549</v>
+      </c>
+      <c r="E550" t="s">
         <v>1071</v>
       </c>
-      <c r="F549" t="s">
+      <c r="F550" t="s">
         <v>1072</v>
       </c>
-      <c r="G549" t="n">
-        <v>1</v>
-      </c>
-      <c r="H549" t="s">
-        <v>4</v>
-      </c>
-      <c r="I549" t="n">
+      <c r="G550" t="n">
+        <v>1</v>
+      </c>
+      <c r="H550" t="s">
+        <v>4</v>
+      </c>
+      <c r="I550" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="s">
+        <v>0</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1</v>
+      </c>
+      <c r="D551" t="n">
+        <v>550</v>
+      </c>
+      <c r="E551" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F551" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G551" t="n">
+        <v>1</v>
+      </c>
+      <c r="H551" t="s">
+        <v>4</v>
+      </c>
+      <c r="I551" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="s">
+        <v>0</v>
+      </c>
+      <c r="C552" t="s">
+        <v>1</v>
+      </c>
+      <c r="D552" t="n">
+        <v>551</v>
+      </c>
+      <c r="E552" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F552" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G552" t="n">
+        <v>1</v>
+      </c>
+      <c r="H552" t="s">
+        <v>4</v>
+      </c>
+      <c r="I552" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1</v>
+      </c>
+      <c r="D553" t="n">
+        <v>552</v>
+      </c>
+      <c r="E553" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F553" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G553" t="n">
+        <v>1</v>
+      </c>
+      <c r="H553" t="s">
+        <v>4</v>
+      </c>
+      <c r="I553" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="s">
+        <v>0</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1</v>
+      </c>
+      <c r="D554" t="n">
+        <v>553</v>
+      </c>
+      <c r="E554" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F554" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G554" t="n">
+        <v>1</v>
+      </c>
+      <c r="H554" t="s">
+        <v>4</v>
+      </c>
+      <c r="I554" t="n">
         <v>3</v>
       </c>
     </row>
